--- a/backend/uploads/currentinventory_4_uk_december2025.xlsx
+++ b/backend/uploads/currentinventory_4_uk_december2025.xlsx
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4665</v>
+        <v>4659</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -633,10 +633,10 @@
         <v>4724</v>
       </c>
       <c r="Q2">
-        <v>485.18</v>
+        <v>484.42</v>
       </c>
       <c r="R2">
-        <v>5105</v>
+        <v>5099</v>
       </c>
       <c r="S2">
         <v>472</v>
@@ -648,7 +648,7 @@
         <v>32</v>
       </c>
       <c r="V2">
-        <v>4665</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -683,16 +683,16 @@
         <v>463</v>
       </c>
       <c r="P3">
-        <v>26056</v>
+        <v>36523</v>
       </c>
       <c r="Q3">
         <v>64.84999999999999</v>
       </c>
       <c r="R3">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="S3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>59</v>
       </c>
       <c r="P5">
-        <v>141217</v>
+        <v>141227</v>
       </c>
       <c r="Q5">
         <v>7.99</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K7">
         <v>402</v>
@@ -895,16 +895,16 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>14514</v>
+        <v>18563</v>
       </c>
       <c r="Q7">
-        <v>99.54000000000001</v>
+        <v>99.42</v>
       </c>
       <c r="R7">
         <v>936</v>
       </c>
       <c r="S7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>10</v>
       </c>
       <c r="V7">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -948,7 +948,7 @@
         <v>314</v>
       </c>
       <c r="P8">
-        <v>161696</v>
+        <v>148111</v>
       </c>
       <c r="Q8">
         <v>35.61</v>
@@ -1033,16 +1033,16 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>4724</v>
+        <v>5291</v>
       </c>
       <c r="Q10">
         <v>116.23</v>
       </c>
       <c r="R10">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="S10">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K11">
         <v>506</v>
@@ -1086,13 +1086,13 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>4724</v>
+        <v>5291</v>
       </c>
       <c r="Q11">
-        <v>79.31</v>
+        <v>79.23</v>
       </c>
       <c r="R11">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="S11">
         <v>115</v>
@@ -1104,7 +1104,7 @@
         <v>7</v>
       </c>
       <c r="V11">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>65847</v>
+        <v>100883</v>
       </c>
       <c r="Q13">
         <v>20.62</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>64152</v>
+        <v>84932</v>
       </c>
       <c r="Q15">
         <v>43.78</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9980</v>
+        <v>9972</v>
       </c>
       <c r="K16">
         <v>1696</v>
@@ -1324,16 +1324,16 @@
         <v>5778</v>
       </c>
       <c r="P16">
-        <v>570236</v>
+        <v>628127</v>
       </c>
       <c r="Q16">
-        <v>1081.77</v>
+        <v>1080.81</v>
       </c>
       <c r="R16">
-        <v>10882</v>
+        <v>10877</v>
       </c>
       <c r="S16">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>73</v>
       </c>
       <c r="V16">
-        <v>9980</v>
+        <v>9972</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/currentinventory_4_uk_december2025.xlsx
+++ b/backend/uploads/currentinventory_4_uk_december2025.xlsx
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4659</v>
+        <v>4618</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2">
         <v>6</v>
       </c>
       <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>4636</v>
+      </c>
+      <c r="P2">
+        <v>3891</v>
+      </c>
+      <c r="Q2">
+        <v>516.4299999999999</v>
+      </c>
+      <c r="R2">
+        <v>5126</v>
+      </c>
+      <c r="S2">
+        <v>519</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>11</v>
       </c>
-      <c r="N2">
-        <v>17</v>
-      </c>
-      <c r="O2">
-        <v>4704</v>
-      </c>
-      <c r="P2">
-        <v>4724</v>
-      </c>
-      <c r="Q2">
-        <v>484.42</v>
-      </c>
-      <c r="R2">
-        <v>5099</v>
-      </c>
-      <c r="S2">
-        <v>472</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>32</v>
-      </c>
       <c r="V2">
-        <v>4659</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="K3">
         <v>147</v>
@@ -680,28 +680,28 @@
         <v>5</v>
       </c>
       <c r="O3">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="P3">
-        <v>36523</v>
+        <v>27092</v>
       </c>
       <c r="Q3">
-        <v>64.84999999999999</v>
+        <v>71.45</v>
       </c>
       <c r="R3">
         <v>908</v>
       </c>
       <c r="S3">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V3">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>2</v>
       </c>
       <c r="O4">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P4">
-        <v>55016</v>
+        <v>69643</v>
       </c>
       <c r="Q4">
-        <v>31.48</v>
+        <v>31.45</v>
       </c>
       <c r="R4">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S4">
         <v>25</v>
@@ -751,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -789,7 +789,7 @@
         <v>59</v>
       </c>
       <c r="P5">
-        <v>141227</v>
+        <v>142314</v>
       </c>
       <c r="Q5">
         <v>7.99</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -842,25 +842,25 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>27566</v>
+        <v>22093</v>
       </c>
       <c r="Q6">
-        <v>33.62</v>
+        <v>32.38</v>
       </c>
       <c r="R6">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="S6">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V6">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="K7">
-        <v>402</v>
+        <v>123</v>
       </c>
       <c r="L7">
-        <v>442</v>
+        <v>700</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -895,25 +895,25 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>18563</v>
+        <v>12893</v>
       </c>
       <c r="Q7">
-        <v>99.42</v>
+        <v>94.22</v>
       </c>
       <c r="R7">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="S7">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>822</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -945,16 +945,16 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P8">
-        <v>148111</v>
+        <v>151921</v>
       </c>
       <c r="Q8">
-        <v>35.61</v>
+        <v>35.75</v>
       </c>
       <c r="R8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S8">
         <v>19</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>318</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K10">
-        <v>324</v>
+        <v>144</v>
       </c>
       <c r="L10">
-        <v>558</v>
+        <v>738</v>
       </c>
       <c r="M10">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1033,25 +1033,25 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>5291</v>
+        <v>3891</v>
       </c>
       <c r="Q10">
-        <v>116.23</v>
+        <v>113.44</v>
       </c>
       <c r="R10">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="S10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="K11">
-        <v>506</v>
+        <v>218</v>
       </c>
       <c r="L11">
-        <v>564</v>
+        <v>845</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1086,25 +1086,25 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>5291</v>
+        <v>3891</v>
       </c>
       <c r="Q11">
-        <v>79.23</v>
+        <v>98.39</v>
       </c>
       <c r="R11">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="S11">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1124,10 +1124,10 @@
         <v>507</v>
       </c>
       <c r="K12">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="L12">
-        <v>252</v>
+        <v>360</v>
       </c>
       <c r="M12">
         <v>58</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>63.56</v>
+        <v>61.92</v>
       </c>
       <c r="R12">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="S12">
         <v>4</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>507</v>
@@ -1177,10 +1177,10 @@
         <v>103</v>
       </c>
       <c r="K13">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="L13">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="M13">
         <v>2</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>100883</v>
+        <v>108281</v>
       </c>
       <c r="Q13">
-        <v>20.62</v>
+        <v>20.1</v>
       </c>
       <c r="R13">
         <v>105</v>
@@ -1262,10 +1262,10 @@
         <v>141</v>
       </c>
       <c r="K15">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="L15">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>84932</v>
+        <v>88380</v>
       </c>
       <c r="Q15">
-        <v>43.78</v>
+        <v>42.55</v>
       </c>
       <c r="R15">
         <v>172</v>
@@ -1306,43 +1306,43 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9972</v>
+        <v>9894</v>
       </c>
       <c r="K16">
-        <v>1696</v>
+        <v>794</v>
       </c>
       <c r="L16">
-        <v>2470</v>
+        <v>3344</v>
       </c>
       <c r="M16">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N16">
+        <v>26</v>
+      </c>
+      <c r="O16">
+        <v>5703</v>
+      </c>
+      <c r="P16">
+        <v>634290</v>
+      </c>
+      <c r="Q16">
+        <v>1126.07</v>
+      </c>
+      <c r="R16">
+        <v>10923</v>
+      </c>
+      <c r="S16">
+        <v>1054</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>25</v>
       </c>
-      <c r="O16">
-        <v>5778</v>
-      </c>
-      <c r="P16">
-        <v>628127</v>
-      </c>
-      <c r="Q16">
-        <v>1080.81</v>
-      </c>
-      <c r="R16">
-        <v>10877</v>
-      </c>
-      <c r="S16">
-        <v>978</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>73</v>
-      </c>
       <c r="V16">
-        <v>9972</v>
+        <v>9894</v>
       </c>
     </row>
   </sheetData>
